--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2216973.326765724</v>
+        <v>-2219587.605382176</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>116.6434613069925</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>297.6072935907341</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52.86845664851259</v>
+        <v>52.86845664851262</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>115.8619247783173</v>
+        <v>115.8619247783174</v>
       </c>
       <c r="T2" t="n">
         <v>205.2000830738755</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>93.45955884233443</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.1561775373476</v>
       </c>
       <c r="H3" t="n">
-        <v>91.11034837618719</v>
+        <v>91.1103483761872</v>
       </c>
       <c r="I3" t="n">
-        <v>14.08691327674306</v>
+        <v>14.08691327674308</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>10.49047786238857</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.1571872936354</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>145.9230939674644</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.83943180792917</v>
+        <v>94.83943180792919</v>
       </c>
       <c r="S4" t="n">
-        <v>192.0586035981866</v>
+        <v>13.72377492722206</v>
       </c>
       <c r="T4" t="n">
         <v>220.1102960603998</v>
@@ -874,13 +874,13 @@
         <v>286.2190043347733</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>49.87943354460441</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>163.9628781690733</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247764</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,22 +1057,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>56.97227283338371</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>328.999629263766</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>181.2290365055945</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,10 +1291,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>77.06300304438628</v>
+        <v>30.27693440363696</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1309,7 +1309,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>27.02919805176111</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272885</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>193.3679902607852</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>247.9252424950646</v>
+        <v>144.108843301494</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>21.90286287505357</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>141.3831318263013</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>86.90598908794061</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>176.76214411214</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>102.1557845699814</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>78.89395497654149</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541847</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652479</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652637</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652669</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1669.421363468997</v>
+        <v>1225.788605320334</v>
       </c>
       <c r="C2" t="n">
-        <v>1300.458846528585</v>
+        <v>856.8260883799219</v>
       </c>
       <c r="D2" t="n">
-        <v>942.1931479218347</v>
+        <v>498.5603897731714</v>
       </c>
       <c r="E2" t="n">
-        <v>942.1931479218347</v>
+        <v>112.7721371749272</v>
       </c>
       <c r="F2" t="n">
-        <v>531.2072431322272</v>
+        <v>112.7721371749272</v>
       </c>
       <c r="G2" t="n">
-        <v>413.3855650443555</v>
+        <v>112.7721371749272</v>
       </c>
       <c r="H2" t="n">
-        <v>112.7721371749273</v>
+        <v>112.7721371749272</v>
       </c>
       <c r="I2" t="n">
-        <v>59.36965571178317</v>
+        <v>59.36965571178315</v>
       </c>
       <c r="J2" t="n">
-        <v>223.6389510734989</v>
+        <v>223.6389510734995</v>
       </c>
       <c r="K2" t="n">
-        <v>520.5745606447431</v>
+        <v>520.5745606447439</v>
       </c>
       <c r="L2" t="n">
-        <v>925.8512030185017</v>
+        <v>925.8512030185025</v>
       </c>
       <c r="M2" t="n">
         <v>1408.468993552357</v>
@@ -4343,37 +4343,37 @@
         <v>1903.509852877248</v>
       </c>
       <c r="O2" t="n">
-        <v>2357.627637384226</v>
+        <v>2357.627637384225</v>
       </c>
       <c r="P2" t="n">
-        <v>2710.705659215711</v>
+        <v>2710.70565921571</v>
       </c>
       <c r="Q2" t="n">
-        <v>2927.679802719473</v>
+        <v>2927.679802719472</v>
       </c>
       <c r="R2" t="n">
-        <v>2968.482785589159</v>
+        <v>2968.482785589157</v>
       </c>
       <c r="S2" t="n">
-        <v>2851.450538338333</v>
+        <v>2851.450538338332</v>
       </c>
       <c r="T2" t="n">
-        <v>2644.1777271526</v>
+        <v>2644.177727152599</v>
       </c>
       <c r="U2" t="n">
-        <v>2390.623582788379</v>
+        <v>2390.623582788377</v>
       </c>
       <c r="V2" t="n">
-        <v>2059.560695444809</v>
+        <v>2059.560695444806</v>
       </c>
       <c r="W2" t="n">
-        <v>2059.560695444809</v>
+        <v>1706.792040174692</v>
       </c>
       <c r="X2" t="n">
-        <v>2059.560695444809</v>
+        <v>1706.792040174692</v>
       </c>
       <c r="Y2" t="n">
-        <v>1669.421363468997</v>
+        <v>1612.388445384455</v>
       </c>
     </row>
     <row r="3">
@@ -4401,28 +4401,28 @@
         <v>165.6295159672683</v>
       </c>
       <c r="H3" t="n">
-        <v>73.59886104182667</v>
+        <v>73.59886104182665</v>
       </c>
       <c r="I3" t="n">
-        <v>59.36965571178317</v>
+        <v>59.36965571178315</v>
       </c>
       <c r="J3" t="n">
-        <v>138.3894757148952</v>
+        <v>138.3894757148951</v>
       </c>
       <c r="K3" t="n">
-        <v>351.6017589168903</v>
+        <v>591.3495759479379</v>
       </c>
       <c r="L3" t="n">
-        <v>684.6145268671328</v>
+        <v>924.3623438981804</v>
       </c>
       <c r="M3" t="n">
-        <v>1092.581588039814</v>
+        <v>1332.329405070861</v>
       </c>
       <c r="N3" t="n">
-        <v>1765.502785324652</v>
+        <v>1765.502785324653</v>
       </c>
       <c r="O3" t="n">
-        <v>2139.552005769182</v>
+        <v>2139.552005769183</v>
       </c>
       <c r="P3" t="n">
         <v>2420.426415694429</v>
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217.8791915794172</v>
+        <v>988.4581264667737</v>
       </c>
       <c r="C4" t="n">
-        <v>217.8791915794172</v>
+        <v>819.5219435388668</v>
       </c>
       <c r="D4" t="n">
-        <v>217.8791915794172</v>
+        <v>669.4053041265311</v>
       </c>
       <c r="E4" t="n">
-        <v>69.96609799702412</v>
+        <v>521.4922105441379</v>
       </c>
       <c r="F4" t="n">
-        <v>59.36965571178317</v>
+        <v>374.6022630462274</v>
       </c>
       <c r="G4" t="n">
-        <v>59.36965571178317</v>
+        <v>206.7667203253836</v>
       </c>
       <c r="H4" t="n">
-        <v>59.36965571178317</v>
+        <v>59.36965571178315</v>
       </c>
       <c r="I4" t="n">
-        <v>59.36965571178317</v>
+        <v>59.36965571178315</v>
       </c>
       <c r="J4" t="n">
-        <v>95.29667538946001</v>
+        <v>95.29667538945986</v>
       </c>
       <c r="K4" t="n">
-        <v>284.1726417778212</v>
+        <v>284.1726417778209</v>
       </c>
       <c r="L4" t="n">
-        <v>581.3952856386281</v>
+        <v>581.3952856386277</v>
       </c>
       <c r="M4" t="n">
-        <v>905.1640129945961</v>
+        <v>905.1640129945957</v>
       </c>
       <c r="N4" t="n">
         <v>1226.66886009458</v>
       </c>
       <c r="O4" t="n">
-        <v>1507.614327944345</v>
+        <v>1507.614327944344</v>
       </c>
       <c r="P4" t="n">
         <v>1724.491028290281</v>
@@ -4510,28 +4510,28 @@
         <v>1791.210133852897</v>
       </c>
       <c r="R4" t="n">
-        <v>1695.412727986302</v>
+        <v>1695.412727986301</v>
       </c>
       <c r="S4" t="n">
-        <v>1501.414138493184</v>
+        <v>1681.550329069916</v>
       </c>
       <c r="T4" t="n">
-        <v>1279.080506108942</v>
+        <v>1459.216696685673</v>
       </c>
       <c r="U4" t="n">
-        <v>989.9704007202821</v>
+        <v>1170.106591297013</v>
       </c>
       <c r="V4" t="n">
-        <v>735.2859125143952</v>
+        <v>1170.106591297013</v>
       </c>
       <c r="W4" t="n">
-        <v>445.8687424774346</v>
+        <v>1170.106591297013</v>
       </c>
       <c r="X4" t="n">
-        <v>217.8791915794172</v>
+        <v>1170.106591297013</v>
       </c>
       <c r="Y4" t="n">
-        <v>217.8791915794172</v>
+        <v>1170.106591297013</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.299101484278</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1257.336584543866</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1257.336584543866</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>871.5483319456221</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,19 +4562,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794326</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524211</v>
+        <v>2718.633196935045</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.038273524211</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y5" t="n">
-        <v>2012.8989415484</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="6">
@@ -4620,58 +4620,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811088</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999819</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387306</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332751</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601601</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927782</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064571</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4683,7 +4683,7 @@
         <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>684.4520072430315</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>515.5158243151246</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>515.5158243151246</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>367.6027307327315</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>367.6027307327315</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1004720732712</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>866.1004720732712</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
         <v>1572.164517693149</v>
@@ -4787,10 +4787,10 @@
         <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,22 +4799,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4823,31 +4823,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3032.255520302333</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2701.192632958763</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2701.192632958763</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2327.726874697683</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
-        <v>2327.726874697683</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>753.0765981364621</v>
+        <v>953.2602595377763</v>
       </c>
       <c r="C10" t="n">
-        <v>675.2351809199102</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199102</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>527.3220873375171</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.507193008249</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.517642110232</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.7250629667018</v>
+        <v>1134.908724368016</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,7 +5057,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349513</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989558</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778177</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578601</v>
+        <v>637.9025067654819</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>489.9894131830888</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5212,37 +5212,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.340348461439</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>788.0191461778176</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,10 +5288,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5358,19 +5358,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1366.386875345992</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>552.8412329032295</v>
+        <v>724.7519863413024</v>
       </c>
       <c r="C16" t="n">
-        <v>552.8412329032295</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1183.271827775017</v>
+        <v>1355.18258121309</v>
       </c>
       <c r="X16" t="n">
-        <v>955.2822768769993</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.4896977334693</v>
+        <v>906.4004511715422</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.853600740071</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121641</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121641</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121641</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>198.0274703142538</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>198.0274703142538</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,49 +5674,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052218</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138409</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703107</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5750,19 +5750,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111725</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5838,19 +5838,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>954.2476448606602</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>785.3114619327534</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5923,16 +5923,16 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487567</v>
@@ -5941,19 +5941,19 @@
         <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>1135.8961096909</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>255.5942300127263</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6184,13 +6184,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="26">
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319316</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656809</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150032</v>
+        <v>656.9646031150014</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942664</v>
+        <v>533.5814564942646</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580124</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345486</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>151.373419438401</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L28" t="n">
         <v>898.2659412311324</v>
@@ -6397,37 +6397,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656823</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384025</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,7 +6643,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S31" t="n">
         <v>2438.456847547835</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6686,46 +6686,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656817</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345481</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384029</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,25 +6871,25 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6920,34 +6920,34 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6962,10 +6962,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942648</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580107</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,16 +7090,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7114,31 +7114,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
@@ -7196,28 +7196,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191924</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1652.71788640035</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2204.627616639637</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954145</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,22 +7357,22 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589157</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828444</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580115</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,19 +7588,19 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7634,40 +7634,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>454.604838556055</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>949.9304447718135</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718135</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
         <v>533.5814564942651</v>
@@ -7795,22 +7795,22 @@
         <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7834,7 +7834,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
@@ -7843,10 +7843,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400515</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>242.1695121525735</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>242.1695121525723</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.872575263447089</v>
+        <v>9.872575263447146</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>294.5711513674216</v>
+        <v>411.2146126744141</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>297.6072935907341</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>292.7783798137191</v>
       </c>
     </row>
     <row r="3">
@@ -22702,25 +22702,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>134.9305701605427</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1571872936354</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>145.9230939674644</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>100.3033462869334</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>178.3348286709646</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,13 +22762,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>25.21666309130958</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>38.59775584152639</v>
+        <v>142.414155035097</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.3918499711708</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>145.1398665102897</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>61.70948393027174</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>75.37549921168801</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>61.40075786968191</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48691.36674215493</v>
+        <v>48691.36674215492</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982127</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>60535.99497675046</v>
+        <v>60535.99497675045</v>
       </c>
       <c r="F2" t="n">
         <v>60535.99497675044</v>
       </c>
       <c r="G2" t="n">
-        <v>60535.99497675045</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="H2" t="n">
-        <v>60535.99497675047</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="I2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675043</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="K2" t="n">
         <v>61578.13273982125</v>
@@ -26344,16 +26344,16 @@
         <v>61578.13273982125</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982123</v>
       </c>
       <c r="N2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.1327398212</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982128</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1228620.061871474</v>
       </c>
       <c r="C3" t="n">
-        <v>95186.49343973058</v>
+        <v>95186.49343973055</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>213599.1454818042</v>
       </c>
       <c r="K3" t="n">
-        <v>22978.01038359973</v>
+        <v>22978.01038359964</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363174</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16555.52139697202</v>
+        <v>16555.52139697204</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815704</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815705</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26430,7 +26430,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680584</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680582</v>
@@ -26439,22 +26439,22 @@
         <v>11776.97621680584</v>
       </c>
       <c r="J4" t="n">
-        <v>19767.83547989932</v>
+        <v>19767.83547989925</v>
       </c>
       <c r="K4" t="n">
-        <v>19767.83547989929</v>
+        <v>19767.83547989927</v>
       </c>
       <c r="L4" t="n">
+        <v>19767.83547989924</v>
+      </c>
+      <c r="M4" t="n">
         <v>19767.8354798993</v>
       </c>
-      <c r="M4" t="n">
-        <v>19767.83547989935</v>
-      </c>
       <c r="N4" t="n">
-        <v>19767.83547989931</v>
+        <v>19767.83547989925</v>
       </c>
       <c r="O4" t="n">
-        <v>19767.8354798993</v>
+        <v>19767.83547989927</v>
       </c>
       <c r="P4" t="n">
         <v>19767.8354798993</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100917.4173209746</v>
+        <v>100917.4173209745</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1297401.633847266</v>
+        <v>-1297831.192713854</v>
       </c>
       <c r="C6" t="n">
         <v>-232506.3122494597</v>
       </c>
       <c r="D6" t="n">
-        <v>-137319.8188097291</v>
+        <v>-137319.8188097292</v>
       </c>
       <c r="E6" t="n">
-        <v>-377775.9728713177</v>
+        <v>-377810.7107967535</v>
       </c>
       <c r="F6" t="n">
-        <v>-52363.5110639625</v>
+        <v>-52398.24898939819</v>
       </c>
       <c r="G6" t="n">
-        <v>-52363.51106396251</v>
+        <v>-52398.24898939819</v>
       </c>
       <c r="H6" t="n">
-        <v>-52363.51106396247</v>
+        <v>-52398.24898939819</v>
       </c>
       <c r="I6" t="n">
-        <v>-52363.51106396251</v>
+        <v>-52398.24898939821</v>
       </c>
       <c r="J6" t="n">
-        <v>-274952.9640757977</v>
+        <v>-274952.9640757976</v>
       </c>
       <c r="K6" t="n">
-        <v>-84331.82897759316</v>
+        <v>-84331.82897759308</v>
       </c>
       <c r="L6" t="n">
-        <v>-61353.81859399345</v>
+        <v>-61353.81859399347</v>
       </c>
       <c r="M6" t="n">
         <v>-146408.8465295052</v>
       </c>
       <c r="N6" t="n">
-        <v>-61353.81859399346</v>
+        <v>-61353.8185939934</v>
       </c>
       <c r="O6" t="n">
-        <v>-80781.53658762517</v>
+        <v>-80781.53658762516</v>
       </c>
       <c r="P6" t="n">
-        <v>-61353.81859399343</v>
+        <v>-61353.81859399352</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203975</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972896</v>
+        <v>742.1206963972893</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,19 +26811,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.815970093361102e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972896</v>
+        <v>742.1206963972893</v>
       </c>
       <c r="C4" t="n">
-        <v>89.28075900500346</v>
+        <v>89.28075900500335</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972896</v>
+        <v>742.1206963972895</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500346</v>
+        <v>89.28075900500312</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972896</v>
+        <v>742.1206963972893</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500346</v>
+        <v>89.28075900500335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>356.996612197107</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>185.2780905483397</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>109.0535354256445</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,10 +27828,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>128.4296311708961</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>53.73421239971458</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>69.76613545330747</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>90.18381805424156</v>
+        <v>136.9698866949909</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="32">
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-1.038358334006666e-12</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="38">
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31048,34 +31048,34 @@
         <v>157.6074329218933</v>
       </c>
       <c r="J2" t="n">
-        <v>346.9744857001373</v>
+        <v>346.9744857001372</v>
       </c>
       <c r="K2" t="n">
-        <v>520.0248102078538</v>
+        <v>520.0248102078536</v>
       </c>
       <c r="L2" t="n">
-        <v>645.1367608020666</v>
+        <v>645.1367608020665</v>
       </c>
       <c r="M2" t="n">
-        <v>717.8389509382373</v>
+        <v>717.8389509382371</v>
       </c>
       <c r="N2" t="n">
-        <v>729.4543356419357</v>
+        <v>729.4543356419355</v>
       </c>
       <c r="O2" t="n">
-        <v>688.8030442570169</v>
+        <v>688.8030442570168</v>
       </c>
       <c r="P2" t="n">
-        <v>587.8774622517193</v>
+        <v>587.8774622517191</v>
       </c>
       <c r="Q2" t="n">
-        <v>441.4714913934013</v>
+        <v>441.4714913934012</v>
       </c>
       <c r="R2" t="n">
-        <v>256.8006720259356</v>
+        <v>256.8006720259355</v>
       </c>
       <c r="S2" t="n">
-        <v>93.158144807928</v>
+        <v>93.15814480792797</v>
       </c>
       <c r="T2" t="n">
         <v>17.89576649025582</v>
@@ -31124,43 +31124,43 @@
         <v>21.12509586030927</v>
       </c>
       <c r="I3" t="n">
-        <v>75.30971957467202</v>
+        <v>75.309719574672</v>
       </c>
       <c r="J3" t="n">
-        <v>206.6556266698102</v>
+        <v>206.6556266698101</v>
       </c>
       <c r="K3" t="n">
-        <v>353.2073816026369</v>
+        <v>353.2073816026368</v>
       </c>
       <c r="L3" t="n">
-        <v>474.9309130629475</v>
+        <v>474.9309130629474</v>
       </c>
       <c r="M3" t="n">
-        <v>554.2219745004842</v>
+        <v>554.2219745004841</v>
       </c>
       <c r="N3" t="n">
-        <v>568.8905810265574</v>
+        <v>568.8905810265572</v>
       </c>
       <c r="O3" t="n">
-        <v>520.4237398429594</v>
+        <v>520.4237398429593</v>
       </c>
       <c r="P3" t="n">
-        <v>417.6859325913465</v>
+        <v>417.6859325913464</v>
       </c>
       <c r="Q3" t="n">
-        <v>279.2119845224528</v>
+        <v>279.2119845224527</v>
       </c>
       <c r="R3" t="n">
-        <v>135.8069287005169</v>
+        <v>135.8069287005168</v>
       </c>
       <c r="S3" t="n">
-        <v>40.62887419092175</v>
+        <v>40.62887419092174</v>
       </c>
       <c r="T3" t="n">
-        <v>8.816513667404273</v>
+        <v>8.816513667404271</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1439039227541504</v>
+        <v>0.1439039227541503</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.83379206482338</v>
+        <v>1.833792064823379</v>
       </c>
       <c r="H4" t="n">
         <v>16.30407853997515</v>
       </c>
       <c r="I4" t="n">
-        <v>55.14712864032493</v>
+        <v>55.14712864032492</v>
       </c>
       <c r="J4" t="n">
         <v>129.6490989830129</v>
@@ -31227,16 +31227,16 @@
         <v>221.7888148219112</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.5550791735287</v>
+        <v>153.5550791735286</v>
       </c>
       <c r="R4" t="n">
-        <v>82.45395956924031</v>
+        <v>82.4539595692403</v>
       </c>
       <c r="S4" t="n">
-        <v>31.95799443878562</v>
+        <v>31.95799443878561</v>
       </c>
       <c r="T4" t="n">
-        <v>7.835293367881712</v>
+        <v>7.83529336788171</v>
       </c>
       <c r="U4" t="n">
         <v>0.100025021717639</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
-        <v>690.2058188111466</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>677.7372574190229</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N18" t="n">
-        <v>251.8861049150245</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>414.6448185524877</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>181.9330708814852</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33181,34 +33181,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>196.3041720119</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,46 +33570,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>338.1920576279227</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,46 +33807,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663298</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>485.9276108700249</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,46 +34044,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159444</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>195.7502366106283</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,46 +34281,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817591</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,25 +34445,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>349.3304751113906</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,10 +34472,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>165.928581173451</v>
+        <v>165.9285811734509</v>
       </c>
       <c r="K2" t="n">
-        <v>299.9349591628732</v>
+        <v>299.9349591628731</v>
       </c>
       <c r="L2" t="n">
-        <v>409.3703458320794</v>
+        <v>409.3703458320793</v>
       </c>
       <c r="M2" t="n">
-        <v>487.4927177109646</v>
+        <v>487.4927177109644</v>
       </c>
       <c r="N2" t="n">
-        <v>500.0412720453448</v>
+        <v>500.0412720453446</v>
       </c>
       <c r="O2" t="n">
-        <v>458.7048328353302</v>
+        <v>458.7048328353301</v>
       </c>
       <c r="P2" t="n">
-        <v>356.6444664964498</v>
+        <v>356.6444664964495</v>
       </c>
       <c r="Q2" t="n">
-        <v>219.1658015189518</v>
+        <v>219.1658015189517</v>
       </c>
       <c r="R2" t="n">
-        <v>41.21513421180344</v>
+        <v>41.21513421180339</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79.81800000314348</v>
+        <v>79.81800000314342</v>
       </c>
       <c r="K3" t="n">
-        <v>215.3659426282779</v>
+        <v>457.5354547808512</v>
       </c>
       <c r="L3" t="n">
-        <v>336.3765332830733</v>
+        <v>336.3765332830732</v>
       </c>
       <c r="M3" t="n">
-        <v>412.0879405784659</v>
+        <v>412.0879405784657</v>
       </c>
       <c r="N3" t="n">
-        <v>679.7183810957964</v>
+        <v>437.548868943224</v>
       </c>
       <c r="O3" t="n">
-        <v>377.827495398515</v>
+        <v>377.8274953985149</v>
       </c>
       <c r="P3" t="n">
-        <v>283.7115251770163</v>
+        <v>283.7115251770161</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.2302104364313</v>
+        <v>139.2302104364312</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.28991886634017</v>
+        <v>36.28991886634014</v>
       </c>
       <c r="K4" t="n">
-        <v>190.783804432688</v>
+        <v>190.7838044326879</v>
       </c>
       <c r="L4" t="n">
-        <v>300.224892788694</v>
+        <v>300.2248927886939</v>
       </c>
       <c r="M4" t="n">
         <v>327.0391185413818</v>
@@ -34875,7 +34875,7 @@
         <v>219.0673740868047</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.39303592183428</v>
+        <v>67.39303592183425</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
-        <v>547.6095743667022</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.261899706045</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>535.1410129745784</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N18" t="n">
-        <v>120.5443928316912</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>44.09163190712619</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>57.74979223202579</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016748</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111713</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>196.0580237059044</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396436</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>351.9532034556946</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193534</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>61.77582919629807</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367786</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>211.4890361370316</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38181,19 +38181,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
